--- a/excel_luke/6_Advanced_Data_Analysis/2_Data_Tables.xlsx
+++ b/excel_luke/6_Advanced_Data_Analysis/2_Data_Tables.xlsx
@@ -1,33 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\6_Advanced_Data_Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liu_michael/Documents/UWaterloo1/Data Analytics/excel_luke/6_Advanced_Data_Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF699739-AF38-4398-A5C0-59458B85094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93841B1D-4508-934B-87A7-B690CD68D9F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="10416" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="30920" windowHeight="20120" activeTab="1" xr2:uid="{6C37AC85-509F-4D10-9DB1-F70D16D6FBAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="3" r:id="rId1"/>
-    <sheet name="Data_Table_One-Input" sheetId="1" r:id="rId2"/>
-    <sheet name="Data_Table_Two-Input" sheetId="2" r:id="rId3"/>
+    <sheet name="2_Input" sheetId="4" r:id="rId2"/>
+    <sheet name="Data_Table_One-Input" sheetId="1" r:id="rId3"/>
+    <sheet name="Data_Table_Two-Input" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="base" localSheetId="2">'Data_Table_Two-Input'!$C$3</definedName>
+    <definedName name="base" localSheetId="1">'2_Input'!$C$3</definedName>
+    <definedName name="base" localSheetId="3">'Data_Table_Two-Input'!$C$3</definedName>
     <definedName name="base" localSheetId="0">Original!$C$3</definedName>
     <definedName name="base">'Data_Table_One-Input'!$C$3</definedName>
-    <definedName name="bonus" localSheetId="2">'Data_Table_Two-Input'!$C$4</definedName>
+    <definedName name="bonus" localSheetId="1">'2_Input'!$C$4</definedName>
+    <definedName name="bonus" localSheetId="3">'Data_Table_Two-Input'!$C$4</definedName>
     <definedName name="bonus" localSheetId="0">Original!$C$4</definedName>
     <definedName name="bonus">'Data_Table_One-Input'!$C$4</definedName>
-    <definedName name="bonuys" localSheetId="2">'Data_Table_Two-Input'!$C$4</definedName>
+    <definedName name="bonuys" localSheetId="1">'2_Input'!$C$4</definedName>
+    <definedName name="bonuys" localSheetId="3">'Data_Table_Two-Input'!$C$4</definedName>
     <definedName name="bonuys" localSheetId="0">Original!$C$4</definedName>
     <definedName name="bonuys">'Data_Table_One-Input'!$C$4</definedName>
-    <definedName name="raise" localSheetId="2">'Data_Table_Two-Input'!$C$5</definedName>
+    <definedName name="raise" localSheetId="1">'2_Input'!$C$5</definedName>
+    <definedName name="raise" localSheetId="3">'Data_Table_Two-Input'!$C$5</definedName>
     <definedName name="raise" localSheetId="0">Original!$C$5</definedName>
     <definedName name="raise">'Data_Table_One-Input'!$C$5</definedName>
   </definedNames>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
   <si>
     <t>Base Salary</t>
   </si>
@@ -102,7 +107,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +173,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -182,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -428,6 +439,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -435,7 +457,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -468,6 +490,14 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -480,14 +510,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="17" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="18" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -827,114 +859,218 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CAB43CA-5103-49AE-8216-4AB866E06AE4}">
   <dimension ref="B1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5234375" customWidth="1"/>
-    <col min="3" max="3" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.05078125" customWidth="1"/>
+    <col min="6" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="C2" s="29"/>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>100000</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="21"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" s="32"/>
+      <c r="F3" s="33">
+        <f>C9</f>
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G3" s="34">
+        <f>C10</f>
+        <v>111650</v>
+      </c>
+      <c r="H3" s="34">
+        <f>$C11</f>
+        <v>113324.74999999997</v>
+      </c>
+      <c r="I3" s="34">
+        <f>C12</f>
+        <v>115024.62124999997</v>
+      </c>
+      <c r="J3" s="34">
+        <f>C13</f>
+        <v>116749.99056874996</v>
+      </c>
+      <c r="K3" s="35">
+        <f>SUM(F3:J3)</f>
+        <v>566749.36181874992</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>0.1</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="dataTable" ref="F4:K12" dt2D="0" dtr="0" r1="C5"/>
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G4" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>550000.00000000012</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="E6" s="17"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="22" t="s">
+      <c r="E5" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>110550</v>
+      </c>
+      <c r="H5" s="1">
+        <v>111102.74999999997</v>
+      </c>
+      <c r="I5" s="1">
+        <v>111658.26374999997</v>
+      </c>
+      <c r="J5" s="1">
+        <v>112216.55506874995</v>
+      </c>
+      <c r="K5" s="2">
+        <v>555527.56881874998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G6" s="1">
+        <v>111100.00000000001</v>
+      </c>
+      <c r="H6" s="1">
+        <v>112211.00000000001</v>
+      </c>
+      <c r="I6" s="1">
+        <v>113333.11</v>
+      </c>
+      <c r="J6" s="1">
+        <v>114466.44110000001</v>
+      </c>
+      <c r="K6" s="2">
+        <v>561110.55110000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="C7" s="29"/>
+      <c r="E7" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G7" s="1">
+        <v>111650</v>
+      </c>
+      <c r="H7" s="1">
+        <v>113324.74999999997</v>
+      </c>
+      <c r="I7" s="1">
+        <v>115024.62124999997</v>
+      </c>
+      <c r="J7" s="1">
+        <v>116749.99056874996</v>
+      </c>
+      <c r="K7" s="2">
+        <v>566749.36181874992</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G8" s="1">
+        <v>112200.00000000001</v>
+      </c>
+      <c r="H8" s="1">
+        <v>114444.00000000001</v>
+      </c>
+      <c r="I8" s="1">
+        <v>116732.87999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>119067.53760000001</v>
+      </c>
+      <c r="K8" s="2">
+        <v>572444.41760000004</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>0</v>
       </c>
@@ -942,15 +1078,29 @@
         <f>(base*(1+raise)^B9)*(1+bonus)</f>
         <v>110000.00000000001</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G9" s="1">
+        <v>112750</v>
+      </c>
+      <c r="H9" s="1">
+        <v>115568.75</v>
+      </c>
+      <c r="I9" s="1">
+        <v>118457.96875</v>
+      </c>
+      <c r="J9" s="1">
+        <v>121419.41796874997</v>
+      </c>
+      <c r="K9" s="2">
+        <v>578196.13671875</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -958,15 +1108,29 @@
         <f>(base*(1+raise)^B10)*(1+bonus)</f>
         <v>111650</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>113300.00000000001</v>
+      </c>
+      <c r="H10" s="1">
+        <v>116699.00000000001</v>
+      </c>
+      <c r="I10" s="1">
+        <v>120199.97</v>
+      </c>
+      <c r="J10" s="1">
+        <v>123805.9691</v>
+      </c>
+      <c r="K10" s="2">
+        <v>584004.93910000008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>2</v>
       </c>
@@ -974,15 +1138,29 @@
         <f>(base*(1+raise)^B11)*(1+bonus)</f>
         <v>113324.74999999997</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="E11" s="17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G11" s="1">
+        <v>113850</v>
+      </c>
+      <c r="H11" s="1">
+        <v>117834.75</v>
+      </c>
+      <c r="I11" s="1">
+        <v>121958.96624999998</v>
+      </c>
+      <c r="J11" s="1">
+        <v>126227.53006874998</v>
+      </c>
+      <c r="K11" s="2">
+        <v>589871.24631874997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>3</v>
       </c>
@@ -990,15 +1168,29 @@
         <f>(base*(1+raise)^B12)*(1+bonus)</f>
         <v>115024.62124999997</v>
       </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="F12" s="3">
+        <v>110000.00000000001</v>
+      </c>
+      <c r="G12" s="3">
+        <v>114400.00000000001</v>
+      </c>
+      <c r="H12" s="3">
+        <v>118976.00000000003</v>
+      </c>
+      <c r="I12" s="3">
+        <v>123735.04000000002</v>
+      </c>
+      <c r="J12" s="3">
+        <v>128684.44160000002</v>
+      </c>
+      <c r="K12" s="4">
+        <v>595795.48160000006</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>4</v>
       </c>
@@ -1007,11 +1199,11 @@
         <v>116749.99056874996</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <f>SUM(C9:C13)</f>
         <v>566749.36181874992</v>
       </c>
@@ -1021,62 +1213,442 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B7:C7"/>
   </mergeCells>
+  <conditionalFormatting sqref="F4:J12">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C774C08-08F4-6C43-9B3F-DD299EE97EC3}">
+  <dimension ref="B1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+    </row>
+    <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
+        <v>100000</v>
+      </c>
+      <c r="E3" s="32">
+        <f>C14</f>
+        <v>566749.36181874992</v>
+      </c>
+      <c r="F3" s="36">
+        <v>0</v>
+      </c>
+      <c r="G3" s="37">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0.15</v>
+      </c>
+      <c r="J3" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="K3" s="38">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="dataTable" ref="F4:K12" dt2D="1" dtr="1" r1="C4" r2="C5"/>
+        <v>500000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>525000</v>
+      </c>
+      <c r="H4" s="1">
+        <v>550000.00000000012</v>
+      </c>
+      <c r="I4" s="1">
+        <v>574999.99999999988</v>
+      </c>
+      <c r="J4" s="1">
+        <v>600000</v>
+      </c>
+      <c r="K4" s="2">
+        <v>625000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E5" s="17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>505025.06256249989</v>
+      </c>
+      <c r="G5" s="1">
+        <v>530276.31569062488</v>
+      </c>
+      <c r="H5" s="1">
+        <v>555527.56881874998</v>
+      </c>
+      <c r="I5" s="1">
+        <v>580778.82194687473</v>
+      </c>
+      <c r="J5" s="1">
+        <v>606030.07507499983</v>
+      </c>
+      <c r="K5" s="2">
+        <v>631281.32820312493</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="1">
+        <v>510100.50099999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>535605.52604999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>561110.55110000004</v>
+      </c>
+      <c r="I6" s="1">
+        <v>586615.57614999986</v>
+      </c>
+      <c r="J6" s="1">
+        <v>612120.60120000003</v>
+      </c>
+      <c r="K6" s="2">
+        <v>637625.62624999997</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="E7" s="17">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>515226.6925624999</v>
+      </c>
+      <c r="G7" s="1">
+        <v>540988.02719062497</v>
+      </c>
+      <c r="H7" s="1">
+        <v>566749.36181874992</v>
+      </c>
+      <c r="I7" s="1">
+        <v>592510.69644687476</v>
+      </c>
+      <c r="J7" s="1">
+        <v>618272.03107499983</v>
+      </c>
+      <c r="K7" s="2">
+        <v>644033.3657031249</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="F8" s="1">
+        <v>520404.016</v>
+      </c>
+      <c r="G8" s="1">
+        <v>546424.21679999994</v>
+      </c>
+      <c r="H8" s="1">
+        <v>572444.41760000004</v>
+      </c>
+      <c r="I8" s="1">
+        <v>598464.61839999992</v>
+      </c>
+      <c r="J8" s="1">
+        <v>624484.81919999991</v>
+      </c>
+      <c r="K8" s="2">
+        <v>650505.02</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" s="9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="7">
+        <f>(base*(1+raise)^B9)*(1+bonus)</f>
+        <v>110000.00000000001</v>
+      </c>
+      <c r="E9" s="17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>525632.8515625</v>
+      </c>
+      <c r="G9" s="1">
+        <v>551914.494140625</v>
+      </c>
+      <c r="H9" s="1">
+        <v>578196.13671875</v>
+      </c>
+      <c r="I9" s="1">
+        <v>604477.77929687488</v>
+      </c>
+      <c r="J9" s="1">
+        <v>630759.42187499988</v>
+      </c>
+      <c r="K9" s="2">
+        <v>657041.064453125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="7">
+        <f>(base*(1+raise)^B10)*(1+bonus)</f>
+        <v>111650</v>
+      </c>
+      <c r="E10" s="17">
+        <v>0.03</v>
+      </c>
+      <c r="F10" s="1">
+        <v>530913.58100000001</v>
+      </c>
+      <c r="G10" s="1">
+        <v>557459.26005000004</v>
+      </c>
+      <c r="H10" s="1">
+        <v>584004.93910000008</v>
+      </c>
+      <c r="I10" s="1">
+        <v>610550.61814999988</v>
+      </c>
+      <c r="J10" s="1">
+        <v>637096.29719999991</v>
+      </c>
+      <c r="K10" s="2">
+        <v>663641.97625000007</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="7">
+        <f>(base*(1+raise)^B11)*(1+bonus)</f>
+        <v>113324.74999999997</v>
+      </c>
+      <c r="E11" s="17">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>536246.58756249992</v>
+      </c>
+      <c r="G11" s="1">
+        <v>563058.91694062494</v>
+      </c>
+      <c r="H11" s="1">
+        <v>589871.24631874997</v>
+      </c>
+      <c r="I11" s="1">
+        <v>616683.57569687488</v>
+      </c>
+      <c r="J11" s="1">
+        <v>643495.9050749999</v>
+      </c>
+      <c r="K11" s="2">
+        <v>670308.23445312493</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="9">
+        <v>3</v>
+      </c>
+      <c r="C12" s="7">
+        <f>(base*(1+raise)^B12)*(1+bonus)</f>
+        <v>115024.62124999997</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="F12" s="3">
+        <v>541632.25600000005</v>
+      </c>
+      <c r="G12" s="3">
+        <v>568713.86880000005</v>
+      </c>
+      <c r="H12" s="3">
+        <v>595795.48160000006</v>
+      </c>
+      <c r="I12" s="3">
+        <v>622877.09440000006</v>
+      </c>
+      <c r="J12" s="3">
+        <v>649958.70720000006</v>
+      </c>
+      <c r="K12" s="4">
+        <v>677040.32000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="9">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7">
+        <f>(base*(1+raise)^B13)*(1+bonus)</f>
+        <v>116749.99056874996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="24">
+        <f>SUM(C9:C13)</f>
+        <v>566749.36181874992</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="F2:K2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="F4:K12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color theme="7"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BC30AE1-3DCF-4D4C-A69F-2300F502F068}">
   <dimension ref="B1:K14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5234375" customWidth="1"/>
-    <col min="3" max="3" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.05078125" customWidth="1"/>
+    <col min="6" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="E2" s="26" t="s">
+      <c r="C2" s="29"/>
+      <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>100000</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="12">
         <f>C9</f>
         <v>110000.00000000001</v>
@@ -1102,11 +1674,11 @@
         <v>566749.36181874992</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>0.1</v>
       </c>
       <c r="E4" s="17">
@@ -1132,11 +1704,11 @@
         <v>550000.00000000012</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E5" s="17">
@@ -1161,7 +1733,7 @@
         <v>555527.56881874998</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="6" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="E6" s="17">
         <v>0.01</v>
       </c>
@@ -1184,11 +1756,11 @@
         <v>561110.55110000004</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="29"/>
       <c r="E7" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -1211,7 +1783,7 @@
         <v>566749.36181874992</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
@@ -1240,7 +1812,7 @@
         <v>572444.41760000004</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>0</v>
       </c>
@@ -1270,7 +1842,7 @@
         <v>578196.13671875</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -1300,7 +1872,7 @@
         <v>584004.93910000008</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>2</v>
       </c>
@@ -1330,7 +1902,7 @@
         <v>589871.24631874997</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>3</v>
       </c>
@@ -1360,7 +1932,7 @@
         <v>595795.48160000006</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>4</v>
       </c>
@@ -1369,11 +1941,11 @@
         <v>116749.99056874996</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <f>SUM(C9:C13)</f>
         <v>566749.36181874992</v>
       </c>
@@ -1416,7 +1988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D225D585-7A9D-4201-AA98-B90D36B61978}">
   <dimension ref="B1:K14"/>
   <sheetViews>
@@ -1424,38 +1996,38 @@
       <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5234375" customWidth="1"/>
-    <col min="3" max="3" width="11.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="11.05078125" customWidth="1"/>
+    <col min="6" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="2" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="22" t="s">
+    <row r="1" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="23"/>
+      <c r="C2" s="29"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-    </row>
-    <row r="3" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+    </row>
+    <row r="3" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="25">
         <v>100000</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="11">
@@ -1481,14 +2053,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="26">
         <v>0.1</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="16">
         <v>0</v>
       </c>
@@ -1512,14 +2084,14 @@
         <v>625000</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="17">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -1542,8 +2114,8 @@
         <v>631281.32820312493</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="D6" s="24"/>
+    <row r="6" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="30"/>
       <c r="E6" s="17">
         <v>0.01</v>
       </c>
@@ -1566,12 +2138,12 @@
         <v>637625.62624999997</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="22" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="17">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -1594,14 +2166,14 @@
         <v>644033.3657031249</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="24"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="17">
         <v>0.02</v>
       </c>
@@ -1624,7 +2196,7 @@
         <v>650505.02</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="9">
         <v>0</v>
       </c>
@@ -1632,7 +2204,7 @@
         <f>(base*(1+raise)^B9)*(1+bonus)</f>
         <v>110000.00000000001</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="17">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -1655,7 +2227,7 @@
         <v>657041.064453125</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="9">
         <v>1</v>
       </c>
@@ -1663,7 +2235,7 @@
         <f>(base*(1+raise)^B10)*(1+bonus)</f>
         <v>111650</v>
       </c>
-      <c r="D10" s="24"/>
+      <c r="D10" s="30"/>
       <c r="E10" s="17">
         <v>0.03</v>
       </c>
@@ -1686,7 +2258,7 @@
         <v>663641.97625000007</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="9">
         <v>2</v>
       </c>
@@ -1694,7 +2266,7 @@
         <f>(base*(1+raise)^B11)*(1+bonus)</f>
         <v>113324.74999999997</v>
       </c>
-      <c r="D11" s="24"/>
+      <c r="D11" s="30"/>
       <c r="E11" s="17">
         <v>3.5000000000000003E-2</v>
       </c>
@@ -1717,7 +2289,7 @@
         <v>670308.23445312493</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>3</v>
       </c>
@@ -1725,7 +2297,7 @@
         <f>(base*(1+raise)^B12)*(1+bonus)</f>
         <v>115024.62124999997</v>
       </c>
-      <c r="D12" s="24"/>
+      <c r="D12" s="30"/>
       <c r="E12" s="18">
         <v>0.04</v>
       </c>
@@ -1748,7 +2320,7 @@
         <v>677040.32000000007</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="9">
         <v>4</v>
       </c>
@@ -1757,11 +2329,11 @@
         <v>116749.99056874996</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <f>SUM(C9:C13)</f>
         <v>566749.36181874992</v>
       </c>
